--- a/InputData/elec/CRbQ/Cap Retirements before Quantization.xlsx
+++ b/InputData/elec/CRbQ/Cap Retirements before Quantization.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/elec/crbq/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\California\CA-eps\InputData\elec\CRbQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE6FA72-1FB7-3741-AC87-1BBF71D80604}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8C2056-8BC2-4B78-B940-6D5FF5735CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4060" yWindow="1260" windowWidth="24540" windowHeight="15400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="14" r:id="rId1"/>
-    <sheet name="CRbQ" sheetId="2" r:id="rId2"/>
+    <sheet name="BCRbQ" sheetId="15" r:id="rId2"/>
+    <sheet name="CRbQ" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
   <si>
     <t>nuclear</t>
   </si>
@@ -138,6 +139,9 @@
   <si>
     <t>The variable BCRbQ BAU Capacity Retirements before Quantization contains the retirement</t>
   </si>
+  <si>
+    <t>BAU Capacity Retirements (MW)</t>
+  </si>
 </sst>
 </file>
 
@@ -211,12 +215,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -337,7 +347,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -345,9 +355,8 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Body: normal cell" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -644,102 +653,102 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.1640625" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
     <col min="2" max="2" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="7">
+      <c r="C1" s="5">
         <v>44307</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -751,21 +760,1707 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE5CBA3-8C26-4AE5-AA2A-AE42A29C266A}">
+  <dimension ref="A1:AF17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1">
+        <v>2020</v>
+      </c>
+      <c r="C1">
+        <v>2021</v>
+      </c>
+      <c r="D1">
+        <v>2022</v>
+      </c>
+      <c r="E1">
+        <v>2023</v>
+      </c>
+      <c r="F1">
+        <v>2024</v>
+      </c>
+      <c r="G1">
+        <v>2025</v>
+      </c>
+      <c r="H1">
+        <v>2026</v>
+      </c>
+      <c r="I1">
+        <v>2027</v>
+      </c>
+      <c r="J1">
+        <v>2028</v>
+      </c>
+      <c r="K1">
+        <v>2029</v>
+      </c>
+      <c r="L1">
+        <v>2030</v>
+      </c>
+      <c r="M1">
+        <v>2031</v>
+      </c>
+      <c r="N1">
+        <v>2032</v>
+      </c>
+      <c r="O1">
+        <v>2033</v>
+      </c>
+      <c r="P1">
+        <v>2034</v>
+      </c>
+      <c r="Q1">
+        <v>2035</v>
+      </c>
+      <c r="R1">
+        <v>2036</v>
+      </c>
+      <c r="S1">
+        <v>2037</v>
+      </c>
+      <c r="T1">
+        <v>2038</v>
+      </c>
+      <c r="U1">
+        <v>2039</v>
+      </c>
+      <c r="V1">
+        <v>2040</v>
+      </c>
+      <c r="W1">
+        <v>2041</v>
+      </c>
+      <c r="X1">
+        <v>2042</v>
+      </c>
+      <c r="Y1">
+        <v>2043</v>
+      </c>
+      <c r="Z1">
+        <v>2044</v>
+      </c>
+      <c r="AA1">
+        <v>2045</v>
+      </c>
+      <c r="AB1">
+        <v>2046</v>
+      </c>
+      <c r="AC1">
+        <v>2047</v>
+      </c>
+      <c r="AD1">
+        <v>2048</v>
+      </c>
+      <c r="AE1">
+        <v>2049</v>
+      </c>
+      <c r="AF1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="F3">
+        <v>2900</v>
+      </c>
+      <c r="G3">
+        <v>150</v>
+      </c>
+      <c r="H3">
+        <v>50</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>350</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>600</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>950</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0</v>
+      </c>
+      <c r="L4" s="6">
+        <v>1150</v>
+      </c>
+      <c r="M4" s="6">
+        <v>1150</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0</v>
+      </c>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="P4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>0</v>
+      </c>
+      <c r="R4" s="6">
+        <v>0</v>
+      </c>
+      <c r="S4" s="6">
+        <v>0</v>
+      </c>
+      <c r="T4" s="6">
+        <v>0</v>
+      </c>
+      <c r="U4" s="6">
+        <v>0</v>
+      </c>
+      <c r="V4" s="6">
+        <v>0</v>
+      </c>
+      <c r="W4" s="6">
+        <v>0</v>
+      </c>
+      <c r="X4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1300</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>250</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>288</v>
+      </c>
+      <c r="H12">
+        <v>96</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:AI17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5" customWidth="1"/>
-    <col min="2" max="23" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="2" max="23" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>32</v>
       </c>
@@ -866,7 +2561,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -874,101 +2569,132 @@
         <v>0</v>
       </c>
       <c r="C2">
+        <f>BCRbQ!B2</f>
         <v>0</v>
       </c>
       <c r="D2">
+        <f>BCRbQ!C2</f>
         <v>0</v>
       </c>
       <c r="E2">
+        <f>BCRbQ!D2</f>
         <v>0</v>
       </c>
       <c r="F2">
+        <f>BCRbQ!E2</f>
         <v>0</v>
       </c>
       <c r="G2">
+        <f>BCRbQ!F2</f>
         <v>0</v>
       </c>
       <c r="H2">
+        <f>BCRbQ!G2</f>
         <v>0</v>
       </c>
       <c r="I2">
+        <f>BCRbQ!H2</f>
         <v>0</v>
       </c>
       <c r="J2">
+        <f>BCRbQ!I2</f>
         <v>0</v>
       </c>
       <c r="K2">
+        <f>BCRbQ!J2</f>
         <v>0</v>
       </c>
       <c r="L2">
+        <f>BCRbQ!K2</f>
         <v>0</v>
       </c>
       <c r="M2">
+        <f>BCRbQ!L2</f>
         <v>0</v>
       </c>
       <c r="N2">
+        <f>BCRbQ!M2</f>
         <v>0</v>
       </c>
       <c r="O2">
+        <f>BCRbQ!N2</f>
         <v>0</v>
       </c>
       <c r="P2">
+        <f>BCRbQ!O2</f>
         <v>0</v>
       </c>
       <c r="Q2">
+        <f>BCRbQ!P2</f>
         <v>0</v>
       </c>
       <c r="R2">
+        <f>BCRbQ!Q2</f>
         <v>0</v>
       </c>
       <c r="S2">
+        <f>BCRbQ!R2</f>
         <v>0</v>
       </c>
       <c r="T2">
+        <f>BCRbQ!S2</f>
         <v>0</v>
       </c>
       <c r="U2">
+        <f>BCRbQ!T2</f>
         <v>0</v>
       </c>
       <c r="V2">
+        <f>BCRbQ!U2</f>
         <v>0</v>
       </c>
       <c r="W2">
+        <f>BCRbQ!V2</f>
         <v>0</v>
       </c>
       <c r="X2">
+        <f>BCRbQ!W2</f>
         <v>0</v>
       </c>
       <c r="Y2">
+        <f>BCRbQ!X2</f>
         <v>0</v>
       </c>
       <c r="Z2">
+        <f>BCRbQ!Y2</f>
         <v>0</v>
       </c>
       <c r="AA2">
+        <f>BCRbQ!Z2</f>
         <v>0</v>
       </c>
       <c r="AB2">
+        <f>BCRbQ!AA2</f>
         <v>0</v>
       </c>
       <c r="AC2">
+        <f>BCRbQ!AB2</f>
         <v>0</v>
       </c>
       <c r="AD2">
+        <f>BCRbQ!AC2</f>
         <v>0</v>
       </c>
       <c r="AE2">
+        <f>BCRbQ!AD2</f>
         <v>0</v>
       </c>
       <c r="AF2">
+        <f>BCRbQ!AE2</f>
         <v>0</v>
       </c>
       <c r="AG2">
+        <f>BCRbQ!AF2</f>
         <v>0</v>
       </c>
       <c r="AI2" s="1"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -976,101 +2702,132 @@
         <v>0</v>
       </c>
       <c r="C3">
+        <f>BCRbQ!B3</f>
         <v>0</v>
       </c>
       <c r="D3">
+        <f>BCRbQ!C3</f>
         <v>0</v>
       </c>
       <c r="E3">
+        <f>BCRbQ!D3</f>
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <f>BCRbQ!E3</f>
+        <v>50</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <f>BCRbQ!F3</f>
+        <v>2900</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <f>BCRbQ!G3</f>
+        <v>150</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <f>BCRbQ!H3</f>
+        <v>50</v>
       </c>
       <c r="J3">
+        <f>BCRbQ!I3</f>
         <v>0</v>
       </c>
       <c r="K3">
+        <f>BCRbQ!J3</f>
         <v>0</v>
       </c>
       <c r="L3">
+        <f>BCRbQ!K3</f>
         <v>0</v>
       </c>
       <c r="M3">
+        <f>BCRbQ!L3</f>
         <v>0</v>
       </c>
       <c r="N3">
+        <f>BCRbQ!M3</f>
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <f>BCRbQ!N3</f>
+        <v>350</v>
       </c>
       <c r="P3">
+        <f>BCRbQ!O3</f>
         <v>0</v>
       </c>
       <c r="Q3">
+        <f>BCRbQ!P3</f>
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <f>BCRbQ!Q3</f>
+        <v>600</v>
       </c>
       <c r="S3">
+        <f>BCRbQ!R3</f>
         <v>0</v>
       </c>
       <c r="T3">
+        <f>BCRbQ!S3</f>
         <v>0</v>
       </c>
       <c r="U3">
+        <f>BCRbQ!T3</f>
         <v>0</v>
       </c>
       <c r="V3">
+        <f>BCRbQ!U3</f>
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <f>BCRbQ!V3</f>
+        <v>950</v>
       </c>
       <c r="X3">
+        <f>BCRbQ!W3</f>
         <v>0</v>
       </c>
       <c r="Y3">
+        <f>BCRbQ!X3</f>
         <v>0</v>
       </c>
       <c r="Z3">
+        <f>BCRbQ!Y3</f>
         <v>0</v>
       </c>
       <c r="AA3">
+        <f>BCRbQ!Z3</f>
         <v>0</v>
       </c>
       <c r="AB3">
+        <f>BCRbQ!AA3</f>
         <v>0</v>
       </c>
       <c r="AC3">
+        <f>BCRbQ!AB3</f>
         <v>0</v>
       </c>
       <c r="AD3">
+        <f>BCRbQ!AC3</f>
         <v>0</v>
       </c>
       <c r="AE3">
+        <f>BCRbQ!AD3</f>
         <v>0</v>
       </c>
       <c r="AF3">
+        <f>BCRbQ!AE3</f>
         <v>0</v>
       </c>
       <c r="AG3">
+        <f>BCRbQ!AF3</f>
         <v>0</v>
       </c>
       <c r="AI3" s="1"/>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1137,42 +2894,53 @@
       <c r="V4">
         <v>0</v>
       </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
+      <c r="W4" s="6">
+        <f>BCRbQ!L4</f>
+        <v>1150</v>
+      </c>
+      <c r="X4" s="6">
+        <f>BCRbQ!M4</f>
+        <v>1150</v>
       </c>
       <c r="Y4">
+        <f>BCRbQ!X4</f>
         <v>0</v>
       </c>
       <c r="Z4">
+        <f>BCRbQ!Y4</f>
         <v>0</v>
       </c>
       <c r="AA4">
+        <f>BCRbQ!Z4</f>
         <v>0</v>
       </c>
       <c r="AB4">
+        <f>BCRbQ!AA4</f>
         <v>0</v>
       </c>
       <c r="AC4">
+        <f>BCRbQ!AB4</f>
         <v>0</v>
       </c>
       <c r="AD4">
+        <f>BCRbQ!AC4</f>
         <v>0</v>
       </c>
       <c r="AE4">
+        <f>BCRbQ!AD4</f>
         <v>0</v>
       </c>
       <c r="AF4">
+        <f>BCRbQ!AE4</f>
         <v>0</v>
       </c>
       <c r="AG4">
+        <f>BCRbQ!AF4</f>
         <v>0</v>
       </c>
       <c r="AI4" s="1"/>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1180,101 +2948,132 @@
         <v>0</v>
       </c>
       <c r="C5">
+        <f>BCRbQ!B5</f>
         <v>0</v>
       </c>
       <c r="D5">
+        <f>BCRbQ!C5</f>
         <v>0</v>
       </c>
       <c r="E5">
+        <f>BCRbQ!D5</f>
         <v>0</v>
       </c>
       <c r="F5">
+        <f>BCRbQ!E5</f>
         <v>0</v>
       </c>
       <c r="G5">
+        <f>BCRbQ!F5</f>
         <v>0</v>
       </c>
       <c r="H5">
+        <f>BCRbQ!G5</f>
         <v>0</v>
       </c>
       <c r="I5">
+        <f>BCRbQ!H5</f>
         <v>0</v>
       </c>
       <c r="J5">
+        <f>BCRbQ!I5</f>
         <v>0</v>
       </c>
       <c r="K5">
+        <f>BCRbQ!J5</f>
         <v>0</v>
       </c>
       <c r="L5">
+        <f>BCRbQ!K5</f>
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <f>BCRbQ!L5</f>
+        <v>1</v>
       </c>
       <c r="N5">
+        <f>BCRbQ!M5</f>
         <v>0</v>
       </c>
       <c r="O5">
+        <f>BCRbQ!N5</f>
         <v>0</v>
       </c>
       <c r="P5">
+        <f>BCRbQ!O5</f>
         <v>0</v>
       </c>
       <c r="Q5">
+        <f>BCRbQ!P5</f>
         <v>0</v>
       </c>
       <c r="R5">
+        <f>BCRbQ!Q5</f>
         <v>0</v>
       </c>
       <c r="S5">
+        <f>BCRbQ!R5</f>
         <v>0</v>
       </c>
       <c r="T5">
+        <f>BCRbQ!S5</f>
         <v>0</v>
       </c>
       <c r="U5">
+        <f>BCRbQ!T5</f>
         <v>0</v>
       </c>
       <c r="V5">
+        <f>BCRbQ!U5</f>
         <v>0</v>
       </c>
       <c r="W5">
+        <f>BCRbQ!V5</f>
         <v>0</v>
       </c>
       <c r="X5">
+        <f>BCRbQ!W5</f>
         <v>0</v>
       </c>
       <c r="Y5">
+        <f>BCRbQ!X5</f>
         <v>0</v>
       </c>
       <c r="Z5">
+        <f>BCRbQ!Y5</f>
         <v>0</v>
       </c>
       <c r="AA5">
+        <f>BCRbQ!Z5</f>
         <v>0</v>
       </c>
       <c r="AB5">
+        <f>BCRbQ!AA5</f>
         <v>0</v>
       </c>
       <c r="AC5">
+        <f>BCRbQ!AB5</f>
         <v>0</v>
       </c>
       <c r="AD5">
+        <f>BCRbQ!AC5</f>
         <v>0</v>
       </c>
       <c r="AE5">
+        <f>BCRbQ!AD5</f>
         <v>0</v>
       </c>
       <c r="AF5">
+        <f>BCRbQ!AE5</f>
         <v>0</v>
       </c>
       <c r="AG5">
+        <f>BCRbQ!AF5</f>
         <v>0</v>
       </c>
       <c r="AI5" s="1"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -1282,101 +3081,132 @@
         <v>0</v>
       </c>
       <c r="C6">
+        <f>BCRbQ!B6</f>
         <v>0</v>
       </c>
       <c r="D6">
+        <f>BCRbQ!C6</f>
         <v>0</v>
       </c>
       <c r="E6">
+        <f>BCRbQ!D6</f>
         <v>0</v>
       </c>
       <c r="F6">
+        <f>BCRbQ!E6</f>
         <v>0</v>
       </c>
       <c r="G6">
+        <f>BCRbQ!F6</f>
         <v>0</v>
       </c>
       <c r="H6">
+        <f>BCRbQ!G6</f>
         <v>0</v>
       </c>
       <c r="I6">
+        <f>BCRbQ!H6</f>
         <v>0</v>
       </c>
       <c r="J6">
+        <f>BCRbQ!I6</f>
         <v>0</v>
       </c>
       <c r="K6">
+        <f>BCRbQ!J6</f>
         <v>0</v>
       </c>
       <c r="L6">
+        <f>BCRbQ!K6</f>
         <v>0</v>
       </c>
       <c r="M6">
+        <f>BCRbQ!L6</f>
         <v>0</v>
       </c>
       <c r="N6">
+        <f>BCRbQ!M6</f>
         <v>0</v>
       </c>
       <c r="O6">
+        <f>BCRbQ!N6</f>
         <v>0</v>
       </c>
       <c r="P6">
+        <f>BCRbQ!O6</f>
         <v>0</v>
       </c>
       <c r="Q6">
+        <f>BCRbQ!P6</f>
         <v>0</v>
       </c>
       <c r="R6">
+        <f>BCRbQ!Q6</f>
         <v>0</v>
       </c>
       <c r="S6">
+        <f>BCRbQ!R6</f>
         <v>0</v>
       </c>
       <c r="T6">
+        <f>BCRbQ!S6</f>
         <v>0</v>
       </c>
       <c r="U6">
+        <f>BCRbQ!T6</f>
         <v>0</v>
       </c>
       <c r="V6">
+        <f>BCRbQ!U6</f>
         <v>0</v>
       </c>
       <c r="W6">
+        <f>BCRbQ!V6</f>
         <v>0</v>
       </c>
       <c r="X6">
+        <f>BCRbQ!W6</f>
         <v>0</v>
       </c>
       <c r="Y6">
+        <f>BCRbQ!X6</f>
         <v>0</v>
       </c>
       <c r="Z6">
+        <f>BCRbQ!Y6</f>
         <v>0</v>
       </c>
       <c r="AA6">
+        <f>BCRbQ!Z6</f>
         <v>0</v>
       </c>
       <c r="AB6">
+        <f>BCRbQ!AA6</f>
         <v>0</v>
       </c>
       <c r="AC6">
+        <f>BCRbQ!AB6</f>
         <v>0</v>
       </c>
       <c r="AD6">
+        <f>BCRbQ!AC6</f>
         <v>0</v>
       </c>
       <c r="AE6">
+        <f>BCRbQ!AD6</f>
         <v>0</v>
       </c>
       <c r="AF6">
+        <f>BCRbQ!AE6</f>
         <v>0</v>
       </c>
       <c r="AG6">
+        <f>BCRbQ!AF6</f>
         <v>0</v>
       </c>
       <c r="AI6" s="1"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -1384,101 +3214,132 @@
         <v>0</v>
       </c>
       <c r="C7">
+        <f>BCRbQ!B7</f>
         <v>0</v>
       </c>
       <c r="D7">
+        <f>BCRbQ!C7</f>
         <v>0</v>
       </c>
       <c r="E7">
+        <f>BCRbQ!D7</f>
         <v>0</v>
       </c>
       <c r="F7">
+        <f>BCRbQ!E7</f>
         <v>0</v>
       </c>
       <c r="G7">
+        <f>BCRbQ!F7</f>
         <v>0</v>
       </c>
       <c r="H7">
+        <f>BCRbQ!G7</f>
         <v>0</v>
       </c>
       <c r="I7">
+        <f>BCRbQ!H7</f>
         <v>0</v>
       </c>
       <c r="J7">
+        <f>BCRbQ!I7</f>
         <v>0</v>
       </c>
       <c r="K7">
+        <f>BCRbQ!J7</f>
         <v>0</v>
       </c>
       <c r="L7">
+        <f>BCRbQ!K7</f>
         <v>0</v>
       </c>
       <c r="M7">
+        <f>BCRbQ!L7</f>
         <v>0</v>
       </c>
       <c r="N7">
+        <f>BCRbQ!M7</f>
         <v>0</v>
       </c>
       <c r="O7">
+        <f>BCRbQ!N7</f>
         <v>0</v>
       </c>
       <c r="P7">
+        <f>BCRbQ!O7</f>
         <v>0</v>
       </c>
       <c r="Q7">
+        <f>BCRbQ!P7</f>
         <v>0</v>
       </c>
       <c r="R7">
+        <f>BCRbQ!Q7</f>
         <v>0</v>
       </c>
       <c r="S7">
+        <f>BCRbQ!R7</f>
         <v>0</v>
       </c>
       <c r="T7">
+        <f>BCRbQ!S7</f>
         <v>0</v>
       </c>
       <c r="U7">
+        <f>BCRbQ!T7</f>
         <v>0</v>
       </c>
       <c r="V7">
+        <f>BCRbQ!U7</f>
         <v>0</v>
       </c>
       <c r="W7">
+        <f>BCRbQ!V7</f>
         <v>0</v>
       </c>
       <c r="X7">
+        <f>BCRbQ!W7</f>
         <v>0</v>
       </c>
       <c r="Y7">
+        <f>BCRbQ!X7</f>
         <v>0</v>
       </c>
       <c r="Z7">
+        <f>BCRbQ!Y7</f>
         <v>0</v>
       </c>
       <c r="AA7">
+        <f>BCRbQ!Z7</f>
         <v>0</v>
       </c>
       <c r="AB7">
+        <f>BCRbQ!AA7</f>
         <v>0</v>
       </c>
       <c r="AC7">
+        <f>BCRbQ!AB7</f>
         <v>0</v>
       </c>
       <c r="AD7">
+        <f>BCRbQ!AC7</f>
         <v>0</v>
       </c>
       <c r="AE7">
+        <f>BCRbQ!AD7</f>
         <v>0</v>
       </c>
       <c r="AF7">
+        <f>BCRbQ!AE7</f>
         <v>0</v>
       </c>
       <c r="AG7">
+        <f>BCRbQ!AF7</f>
         <v>0</v>
       </c>
       <c r="AI7" s="1"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -1486,101 +3347,132 @@
         <v>0</v>
       </c>
       <c r="C8">
+        <f>BCRbQ!B8</f>
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <f>BCRbQ!C8</f>
+        <v>1300</v>
       </c>
       <c r="E8">
+        <f>BCRbQ!D8</f>
         <v>0</v>
       </c>
       <c r="F8">
+        <f>BCRbQ!E8</f>
         <v>0</v>
       </c>
       <c r="G8">
+        <f>BCRbQ!F8</f>
         <v>0</v>
       </c>
       <c r="H8">
+        <f>BCRbQ!G8</f>
         <v>0</v>
       </c>
       <c r="I8">
+        <f>BCRbQ!H8</f>
         <v>0</v>
       </c>
       <c r="J8">
+        <f>BCRbQ!I8</f>
         <v>0</v>
       </c>
       <c r="K8">
+        <f>BCRbQ!J8</f>
         <v>0</v>
       </c>
       <c r="L8">
+        <f>BCRbQ!K8</f>
         <v>0</v>
       </c>
       <c r="M8">
+        <f>BCRbQ!L8</f>
         <v>0</v>
       </c>
       <c r="N8">
+        <f>BCRbQ!M8</f>
         <v>0</v>
       </c>
       <c r="O8">
+        <f>BCRbQ!N8</f>
         <v>0</v>
       </c>
       <c r="P8">
+        <f>BCRbQ!O8</f>
         <v>0</v>
       </c>
       <c r="Q8">
+        <f>BCRbQ!P8</f>
         <v>0</v>
       </c>
       <c r="R8">
+        <f>BCRbQ!Q8</f>
         <v>0</v>
       </c>
       <c r="S8">
+        <f>BCRbQ!R8</f>
         <v>0</v>
       </c>
       <c r="T8">
+        <f>BCRbQ!S8</f>
         <v>0</v>
       </c>
       <c r="U8">
+        <f>BCRbQ!T8</f>
         <v>0</v>
       </c>
       <c r="V8">
+        <f>BCRbQ!U8</f>
         <v>0</v>
       </c>
       <c r="W8">
+        <f>BCRbQ!V8</f>
         <v>0</v>
       </c>
       <c r="X8">
+        <f>BCRbQ!W8</f>
         <v>0</v>
       </c>
       <c r="Y8">
+        <f>BCRbQ!X8</f>
         <v>0</v>
       </c>
       <c r="Z8">
+        <f>BCRbQ!Y8</f>
         <v>0</v>
       </c>
       <c r="AA8">
+        <f>BCRbQ!Z8</f>
         <v>0</v>
       </c>
       <c r="AB8">
+        <f>BCRbQ!AA8</f>
         <v>0</v>
       </c>
       <c r="AC8">
+        <f>BCRbQ!AB8</f>
         <v>0</v>
       </c>
       <c r="AD8">
+        <f>BCRbQ!AC8</f>
         <v>0</v>
       </c>
       <c r="AE8">
+        <f>BCRbQ!AD8</f>
         <v>0</v>
       </c>
       <c r="AF8">
+        <f>BCRbQ!AE8</f>
         <v>0</v>
       </c>
       <c r="AG8">
+        <f>BCRbQ!AF8</f>
         <v>0</v>
       </c>
       <c r="AI8" s="1"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
@@ -1588,101 +3480,132 @@
         <v>0</v>
       </c>
       <c r="C9">
+        <f>BCRbQ!B9</f>
         <v>0</v>
       </c>
       <c r="D9">
+        <f>BCRbQ!C9</f>
         <v>0</v>
       </c>
       <c r="E9">
+        <f>BCRbQ!D9</f>
         <v>0</v>
       </c>
       <c r="F9">
+        <f>BCRbQ!E9</f>
         <v>0</v>
       </c>
       <c r="G9">
+        <f>BCRbQ!F9</f>
         <v>0</v>
       </c>
       <c r="H9">
+        <f>BCRbQ!G9</f>
         <v>0</v>
       </c>
       <c r="I9">
+        <f>BCRbQ!H9</f>
         <v>0</v>
       </c>
       <c r="J9">
+        <f>BCRbQ!I9</f>
         <v>0</v>
       </c>
       <c r="K9">
+        <f>BCRbQ!J9</f>
         <v>0</v>
       </c>
       <c r="L9">
+        <f>BCRbQ!K9</f>
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <f>BCRbQ!L9</f>
+        <v>2</v>
       </c>
       <c r="N9">
+        <f>BCRbQ!M9</f>
         <v>0</v>
       </c>
       <c r="O9">
+        <f>BCRbQ!N9</f>
         <v>0</v>
       </c>
       <c r="P9">
+        <f>BCRbQ!O9</f>
         <v>0</v>
       </c>
       <c r="Q9">
+        <f>BCRbQ!P9</f>
         <v>0</v>
       </c>
       <c r="R9">
+        <f>BCRbQ!Q9</f>
         <v>0</v>
       </c>
       <c r="S9">
+        <f>BCRbQ!R9</f>
         <v>0</v>
       </c>
       <c r="T9">
+        <f>BCRbQ!S9</f>
         <v>0</v>
       </c>
       <c r="U9">
+        <f>BCRbQ!T9</f>
         <v>0</v>
       </c>
       <c r="V9">
+        <f>BCRbQ!U9</f>
         <v>0</v>
       </c>
       <c r="W9">
+        <f>BCRbQ!V9</f>
         <v>0</v>
       </c>
       <c r="X9">
+        <f>BCRbQ!W9</f>
         <v>0</v>
       </c>
       <c r="Y9">
+        <f>BCRbQ!X9</f>
         <v>0</v>
       </c>
       <c r="Z9">
+        <f>BCRbQ!Y9</f>
         <v>0</v>
       </c>
       <c r="AA9">
+        <f>BCRbQ!Z9</f>
         <v>0</v>
       </c>
       <c r="AB9">
+        <f>BCRbQ!AA9</f>
         <v>0</v>
       </c>
       <c r="AC9">
+        <f>BCRbQ!AB9</f>
         <v>0</v>
       </c>
       <c r="AD9">
+        <f>BCRbQ!AC9</f>
         <v>0</v>
       </c>
       <c r="AE9">
+        <f>BCRbQ!AD9</f>
         <v>0</v>
       </c>
       <c r="AF9">
+        <f>BCRbQ!AE9</f>
         <v>0</v>
       </c>
       <c r="AG9">
+        <f>BCRbQ!AF9</f>
         <v>0</v>
       </c>
       <c r="AI9" s="1"/>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -1690,101 +3613,132 @@
         <v>0</v>
       </c>
       <c r="C10">
+        <f>BCRbQ!B10</f>
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <f>BCRbQ!C10</f>
+        <v>250</v>
       </c>
       <c r="E10">
+        <f>BCRbQ!D10</f>
         <v>0</v>
       </c>
       <c r="F10">
+        <f>BCRbQ!E10</f>
         <v>0</v>
       </c>
       <c r="G10">
+        <f>BCRbQ!F10</f>
         <v>0</v>
       </c>
       <c r="H10">
+        <f>BCRbQ!G10</f>
         <v>0</v>
       </c>
       <c r="I10">
+        <f>BCRbQ!H10</f>
         <v>0</v>
       </c>
       <c r="J10">
+        <f>BCRbQ!I10</f>
         <v>0</v>
       </c>
       <c r="K10">
+        <f>BCRbQ!J10</f>
         <v>0</v>
       </c>
       <c r="L10">
+        <f>BCRbQ!K10</f>
         <v>0</v>
       </c>
       <c r="M10">
+        <f>BCRbQ!L10</f>
         <v>0</v>
       </c>
       <c r="N10">
+        <f>BCRbQ!M10</f>
         <v>0</v>
       </c>
       <c r="O10">
+        <f>BCRbQ!N10</f>
         <v>0</v>
       </c>
       <c r="P10">
+        <f>BCRbQ!O10</f>
         <v>0</v>
       </c>
       <c r="Q10">
+        <f>BCRbQ!P10</f>
         <v>0</v>
       </c>
       <c r="R10">
+        <f>BCRbQ!Q10</f>
         <v>0</v>
       </c>
       <c r="S10">
+        <f>BCRbQ!R10</f>
         <v>0</v>
       </c>
       <c r="T10">
+        <f>BCRbQ!S10</f>
         <v>0</v>
       </c>
       <c r="U10">
+        <f>BCRbQ!T10</f>
         <v>0</v>
       </c>
       <c r="V10">
+        <f>BCRbQ!U10</f>
         <v>0</v>
       </c>
       <c r="W10">
+        <f>BCRbQ!V10</f>
         <v>0</v>
       </c>
       <c r="X10">
+        <f>BCRbQ!W10</f>
         <v>0</v>
       </c>
       <c r="Y10">
+        <f>BCRbQ!X10</f>
         <v>0</v>
       </c>
       <c r="Z10">
+        <f>BCRbQ!Y10</f>
         <v>0</v>
       </c>
       <c r="AA10">
+        <f>BCRbQ!Z10</f>
         <v>0</v>
       </c>
       <c r="AB10">
+        <f>BCRbQ!AA10</f>
         <v>0</v>
       </c>
       <c r="AC10">
+        <f>BCRbQ!AB10</f>
         <v>0</v>
       </c>
       <c r="AD10">
+        <f>BCRbQ!AC10</f>
         <v>0</v>
       </c>
       <c r="AE10">
+        <f>BCRbQ!AD10</f>
         <v>0</v>
       </c>
       <c r="AF10">
+        <f>BCRbQ!AE10</f>
         <v>0</v>
       </c>
       <c r="AG10">
+        <f>BCRbQ!AF10</f>
         <v>0</v>
       </c>
       <c r="AI10" s="1"/>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -1792,101 +3746,132 @@
         <v>0</v>
       </c>
       <c r="C11">
+        <f>BCRbQ!B11</f>
         <v>0</v>
       </c>
       <c r="D11">
+        <f>BCRbQ!C11</f>
         <v>0</v>
       </c>
       <c r="E11">
+        <f>BCRbQ!D11</f>
         <v>0</v>
       </c>
       <c r="F11">
+        <f>BCRbQ!E11</f>
         <v>0</v>
       </c>
       <c r="G11">
+        <f>BCRbQ!F11</f>
         <v>0</v>
       </c>
       <c r="H11">
+        <f>BCRbQ!G11</f>
         <v>0</v>
       </c>
       <c r="I11">
+        <f>BCRbQ!H11</f>
         <v>0</v>
       </c>
       <c r="J11">
+        <f>BCRbQ!I11</f>
         <v>0</v>
       </c>
       <c r="K11">
+        <f>BCRbQ!J11</f>
         <v>0</v>
       </c>
       <c r="L11">
+        <f>BCRbQ!K11</f>
         <v>0</v>
       </c>
       <c r="M11">
+        <f>BCRbQ!L11</f>
         <v>0</v>
       </c>
       <c r="N11">
+        <f>BCRbQ!M11</f>
         <v>0</v>
       </c>
       <c r="O11">
+        <f>BCRbQ!N11</f>
         <v>0</v>
       </c>
       <c r="P11">
+        <f>BCRbQ!O11</f>
         <v>0</v>
       </c>
       <c r="Q11">
+        <f>BCRbQ!P11</f>
         <v>0</v>
       </c>
       <c r="R11">
+        <f>BCRbQ!Q11</f>
         <v>0</v>
       </c>
       <c r="S11">
+        <f>BCRbQ!R11</f>
         <v>0</v>
       </c>
       <c r="T11">
+        <f>BCRbQ!S11</f>
         <v>0</v>
       </c>
       <c r="U11">
+        <f>BCRbQ!T11</f>
         <v>0</v>
       </c>
       <c r="V11">
+        <f>BCRbQ!U11</f>
         <v>0</v>
       </c>
       <c r="W11">
+        <f>BCRbQ!V11</f>
         <v>0</v>
       </c>
       <c r="X11">
+        <f>BCRbQ!W11</f>
         <v>0</v>
       </c>
       <c r="Y11">
+        <f>BCRbQ!X11</f>
         <v>0</v>
       </c>
       <c r="Z11">
+        <f>BCRbQ!Y11</f>
         <v>0</v>
       </c>
       <c r="AA11">
+        <f>BCRbQ!Z11</f>
         <v>0</v>
       </c>
       <c r="AB11">
+        <f>BCRbQ!AA11</f>
         <v>0</v>
       </c>
       <c r="AC11">
+        <f>BCRbQ!AB11</f>
         <v>0</v>
       </c>
       <c r="AD11">
+        <f>BCRbQ!AC11</f>
         <v>0</v>
       </c>
       <c r="AE11">
+        <f>BCRbQ!AD11</f>
         <v>0</v>
       </c>
       <c r="AF11">
+        <f>BCRbQ!AE11</f>
         <v>0</v>
       </c>
       <c r="AG11">
+        <f>BCRbQ!AF11</f>
         <v>0</v>
       </c>
       <c r="AI11" s="1"/>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
@@ -1894,101 +3879,132 @@
         <v>0</v>
       </c>
       <c r="C12">
+        <f>BCRbQ!B12</f>
         <v>0</v>
       </c>
       <c r="D12">
+        <f>BCRbQ!C12</f>
         <v>0</v>
       </c>
       <c r="E12">
+        <f>BCRbQ!D12</f>
         <v>0</v>
       </c>
       <c r="F12">
+        <f>BCRbQ!E12</f>
         <v>0</v>
       </c>
       <c r="G12">
+        <f>BCRbQ!F12</f>
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <f>BCRbQ!G12</f>
+        <v>288</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <f>BCRbQ!H12</f>
+        <v>96</v>
       </c>
       <c r="J12">
+        <f>BCRbQ!I12</f>
         <v>0</v>
       </c>
       <c r="K12">
+        <f>BCRbQ!J12</f>
         <v>0</v>
       </c>
       <c r="L12">
+        <f>BCRbQ!K12</f>
         <v>0</v>
       </c>
       <c r="M12">
+        <f>BCRbQ!L12</f>
         <v>0</v>
       </c>
       <c r="N12">
+        <f>BCRbQ!M12</f>
         <v>0</v>
       </c>
       <c r="O12">
+        <f>BCRbQ!N12</f>
         <v>0</v>
       </c>
       <c r="P12">
+        <f>BCRbQ!O12</f>
         <v>0</v>
       </c>
       <c r="Q12">
+        <f>BCRbQ!P12</f>
         <v>0</v>
       </c>
       <c r="R12">
+        <f>BCRbQ!Q12</f>
         <v>0</v>
       </c>
       <c r="S12">
+        <f>BCRbQ!R12</f>
         <v>0</v>
       </c>
       <c r="T12">
+        <f>BCRbQ!S12</f>
         <v>0</v>
       </c>
       <c r="U12">
+        <f>BCRbQ!T12</f>
         <v>0</v>
       </c>
       <c r="V12">
+        <f>BCRbQ!U12</f>
         <v>0</v>
       </c>
       <c r="W12">
+        <f>BCRbQ!V12</f>
         <v>0</v>
       </c>
       <c r="X12">
+        <f>BCRbQ!W12</f>
         <v>0</v>
       </c>
       <c r="Y12">
+        <f>BCRbQ!X12</f>
         <v>0</v>
       </c>
       <c r="Z12">
+        <f>BCRbQ!Y12</f>
         <v>0</v>
       </c>
       <c r="AA12">
+        <f>BCRbQ!Z12</f>
         <v>0</v>
       </c>
       <c r="AB12">
+        <f>BCRbQ!AA12</f>
         <v>0</v>
       </c>
       <c r="AC12">
+        <f>BCRbQ!AB12</f>
         <v>0</v>
       </c>
       <c r="AD12">
+        <f>BCRbQ!AC12</f>
         <v>0</v>
       </c>
       <c r="AE12">
+        <f>BCRbQ!AD12</f>
         <v>0</v>
       </c>
       <c r="AF12">
+        <f>BCRbQ!AE12</f>
         <v>0</v>
       </c>
       <c r="AG12">
+        <f>BCRbQ!AF12</f>
         <v>0</v>
       </c>
       <c r="AI12" s="1"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
@@ -1996,101 +4012,132 @@
         <v>0</v>
       </c>
       <c r="C13">
+        <f>BCRbQ!B13</f>
         <v>0</v>
       </c>
       <c r="D13">
+        <f>BCRbQ!C13</f>
         <v>0</v>
       </c>
       <c r="E13">
+        <f>BCRbQ!D13</f>
         <v>0</v>
       </c>
       <c r="F13">
+        <f>BCRbQ!E13</f>
         <v>0</v>
       </c>
       <c r="G13">
+        <f>BCRbQ!F13</f>
         <v>0</v>
       </c>
       <c r="H13">
+        <f>BCRbQ!G13</f>
         <v>0</v>
       </c>
       <c r="I13">
+        <f>BCRbQ!H13</f>
         <v>0</v>
       </c>
       <c r="J13">
+        <f>BCRbQ!I13</f>
         <v>0</v>
       </c>
       <c r="K13">
+        <f>BCRbQ!J13</f>
         <v>0</v>
       </c>
       <c r="L13">
+        <f>BCRbQ!K13</f>
         <v>0</v>
       </c>
       <c r="M13">
+        <f>BCRbQ!L13</f>
         <v>0</v>
       </c>
       <c r="N13">
+        <f>BCRbQ!M13</f>
         <v>0</v>
       </c>
       <c r="O13">
+        <f>BCRbQ!N13</f>
         <v>0</v>
       </c>
       <c r="P13">
+        <f>BCRbQ!O13</f>
         <v>0</v>
       </c>
       <c r="Q13">
+        <f>BCRbQ!P13</f>
         <v>0</v>
       </c>
       <c r="R13">
+        <f>BCRbQ!Q13</f>
         <v>0</v>
       </c>
       <c r="S13">
+        <f>BCRbQ!R13</f>
         <v>0</v>
       </c>
       <c r="T13">
+        <f>BCRbQ!S13</f>
         <v>0</v>
       </c>
       <c r="U13">
+        <f>BCRbQ!T13</f>
         <v>0</v>
       </c>
       <c r="V13">
+        <f>BCRbQ!U13</f>
         <v>0</v>
       </c>
       <c r="W13">
+        <f>BCRbQ!V13</f>
         <v>0</v>
       </c>
       <c r="X13">
+        <f>BCRbQ!W13</f>
         <v>0</v>
       </c>
       <c r="Y13">
+        <f>BCRbQ!X13</f>
         <v>0</v>
       </c>
       <c r="Z13">
+        <f>BCRbQ!Y13</f>
         <v>0</v>
       </c>
       <c r="AA13">
+        <f>BCRbQ!Z13</f>
         <v>0</v>
       </c>
       <c r="AB13">
+        <f>BCRbQ!AA13</f>
         <v>0</v>
       </c>
       <c r="AC13">
+        <f>BCRbQ!AB13</f>
         <v>0</v>
       </c>
       <c r="AD13">
+        <f>BCRbQ!AC13</f>
         <v>0</v>
       </c>
       <c r="AE13">
+        <f>BCRbQ!AD13</f>
         <v>0</v>
       </c>
       <c r="AF13">
+        <f>BCRbQ!AE13</f>
         <v>0</v>
       </c>
       <c r="AG13">
+        <f>BCRbQ!AF13</f>
         <v>0</v>
       </c>
       <c r="AI13" s="1"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -2098,101 +4145,132 @@
         <v>0</v>
       </c>
       <c r="C14">
+        <f>BCRbQ!B14</f>
         <v>0</v>
       </c>
       <c r="D14">
+        <f>BCRbQ!C14</f>
         <v>0</v>
       </c>
       <c r="E14">
+        <f>BCRbQ!D14</f>
         <v>0</v>
       </c>
       <c r="F14">
+        <f>BCRbQ!E14</f>
         <v>0</v>
       </c>
       <c r="G14">
+        <f>BCRbQ!F14</f>
         <v>0</v>
       </c>
       <c r="H14">
+        <f>BCRbQ!G14</f>
         <v>0</v>
       </c>
       <c r="I14">
+        <f>BCRbQ!H14</f>
         <v>0</v>
       </c>
       <c r="J14">
+        <f>BCRbQ!I14</f>
         <v>0</v>
       </c>
       <c r="K14">
+        <f>BCRbQ!J14</f>
         <v>0</v>
       </c>
       <c r="L14">
+        <f>BCRbQ!K14</f>
         <v>0</v>
       </c>
       <c r="M14">
+        <f>BCRbQ!L14</f>
         <v>0</v>
       </c>
       <c r="N14">
+        <f>BCRbQ!M14</f>
         <v>0</v>
       </c>
       <c r="O14">
+        <f>BCRbQ!N14</f>
         <v>0</v>
       </c>
       <c r="P14">
+        <f>BCRbQ!O14</f>
         <v>0</v>
       </c>
       <c r="Q14">
+        <f>BCRbQ!P14</f>
         <v>0</v>
       </c>
       <c r="R14">
+        <f>BCRbQ!Q14</f>
         <v>0</v>
       </c>
       <c r="S14">
+        <f>BCRbQ!R14</f>
         <v>0</v>
       </c>
       <c r="T14">
+        <f>BCRbQ!S14</f>
         <v>0</v>
       </c>
       <c r="U14">
+        <f>BCRbQ!T14</f>
         <v>0</v>
       </c>
       <c r="V14">
+        <f>BCRbQ!U14</f>
         <v>0</v>
       </c>
       <c r="W14">
+        <f>BCRbQ!V14</f>
         <v>0</v>
       </c>
       <c r="X14">
+        <f>BCRbQ!W14</f>
         <v>0</v>
       </c>
       <c r="Y14">
+        <f>BCRbQ!X14</f>
         <v>0</v>
       </c>
       <c r="Z14">
+        <f>BCRbQ!Y14</f>
         <v>0</v>
       </c>
       <c r="AA14">
+        <f>BCRbQ!Z14</f>
         <v>0</v>
       </c>
       <c r="AB14">
+        <f>BCRbQ!AA14</f>
         <v>0</v>
       </c>
       <c r="AC14">
+        <f>BCRbQ!AB14</f>
         <v>0</v>
       </c>
       <c r="AD14">
+        <f>BCRbQ!AC14</f>
         <v>0</v>
       </c>
       <c r="AE14">
+        <f>BCRbQ!AD14</f>
         <v>0</v>
       </c>
       <c r="AF14">
+        <f>BCRbQ!AE14</f>
         <v>0</v>
       </c>
       <c r="AG14">
+        <f>BCRbQ!AF14</f>
         <v>0</v>
       </c>
       <c r="AI14" s="1"/>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
@@ -2200,100 +4278,131 @@
         <v>0</v>
       </c>
       <c r="C15">
+        <f>BCRbQ!B15</f>
         <v>0</v>
       </c>
       <c r="D15">
+        <f>BCRbQ!C15</f>
         <v>0</v>
       </c>
       <c r="E15">
+        <f>BCRbQ!D15</f>
         <v>0</v>
       </c>
       <c r="F15">
+        <f>BCRbQ!E15</f>
         <v>0</v>
       </c>
       <c r="G15">
+        <f>BCRbQ!F15</f>
         <v>0</v>
       </c>
       <c r="H15">
+        <f>BCRbQ!G15</f>
         <v>0</v>
       </c>
       <c r="I15">
+        <f>BCRbQ!H15</f>
         <v>0</v>
       </c>
       <c r="J15">
+        <f>BCRbQ!I15</f>
         <v>0</v>
       </c>
       <c r="K15">
+        <f>BCRbQ!J15</f>
         <v>0</v>
       </c>
       <c r="L15">
+        <f>BCRbQ!K15</f>
         <v>0</v>
       </c>
       <c r="M15">
+        <f>BCRbQ!L15</f>
         <v>0</v>
       </c>
       <c r="N15">
+        <f>BCRbQ!M15</f>
         <v>0</v>
       </c>
       <c r="O15">
+        <f>BCRbQ!N15</f>
         <v>0</v>
       </c>
       <c r="P15">
+        <f>BCRbQ!O15</f>
         <v>0</v>
       </c>
       <c r="Q15">
+        <f>BCRbQ!P15</f>
         <v>0</v>
       </c>
       <c r="R15">
+        <f>BCRbQ!Q15</f>
         <v>0</v>
       </c>
       <c r="S15">
+        <f>BCRbQ!R15</f>
         <v>0</v>
       </c>
       <c r="T15">
+        <f>BCRbQ!S15</f>
         <v>0</v>
       </c>
       <c r="U15">
+        <f>BCRbQ!T15</f>
         <v>0</v>
       </c>
       <c r="V15">
+        <f>BCRbQ!U15</f>
         <v>0</v>
       </c>
       <c r="W15">
+        <f>BCRbQ!V15</f>
         <v>0</v>
       </c>
       <c r="X15">
+        <f>BCRbQ!W15</f>
         <v>0</v>
       </c>
       <c r="Y15">
+        <f>BCRbQ!X15</f>
         <v>0</v>
       </c>
       <c r="Z15">
+        <f>BCRbQ!Y15</f>
         <v>0</v>
       </c>
       <c r="AA15">
+        <f>BCRbQ!Z15</f>
         <v>0</v>
       </c>
       <c r="AB15">
+        <f>BCRbQ!AA15</f>
         <v>0</v>
       </c>
       <c r="AC15">
+        <f>BCRbQ!AB15</f>
         <v>0</v>
       </c>
       <c r="AD15">
+        <f>BCRbQ!AC15</f>
         <v>0</v>
       </c>
       <c r="AE15">
+        <f>BCRbQ!AD15</f>
         <v>0</v>
       </c>
       <c r="AF15">
+        <f>BCRbQ!AE15</f>
         <v>0</v>
       </c>
       <c r="AG15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+        <f>BCRbQ!AF15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
@@ -2301,100 +4410,131 @@
         <v>0</v>
       </c>
       <c r="C16">
+        <f>BCRbQ!B16</f>
         <v>0</v>
       </c>
       <c r="D16">
+        <f>BCRbQ!C16</f>
         <v>0</v>
       </c>
       <c r="E16">
+        <f>BCRbQ!D16</f>
         <v>0</v>
       </c>
       <c r="F16">
+        <f>BCRbQ!E16</f>
         <v>0</v>
       </c>
       <c r="G16">
+        <f>BCRbQ!F16</f>
         <v>0</v>
       </c>
       <c r="H16">
+        <f>BCRbQ!G16</f>
         <v>0</v>
       </c>
       <c r="I16">
+        <f>BCRbQ!H16</f>
         <v>0</v>
       </c>
       <c r="J16">
+        <f>BCRbQ!I16</f>
         <v>0</v>
       </c>
       <c r="K16">
+        <f>BCRbQ!J16</f>
         <v>0</v>
       </c>
       <c r="L16">
+        <f>BCRbQ!K16</f>
         <v>0</v>
       </c>
       <c r="M16">
+        <f>BCRbQ!L16</f>
         <v>0</v>
       </c>
       <c r="N16">
+        <f>BCRbQ!M16</f>
         <v>0</v>
       </c>
       <c r="O16">
+        <f>BCRbQ!N16</f>
         <v>0</v>
       </c>
       <c r="P16">
+        <f>BCRbQ!O16</f>
         <v>0</v>
       </c>
       <c r="Q16">
+        <f>BCRbQ!P16</f>
         <v>0</v>
       </c>
       <c r="R16">
+        <f>BCRbQ!Q16</f>
         <v>0</v>
       </c>
       <c r="S16">
+        <f>BCRbQ!R16</f>
         <v>0</v>
       </c>
       <c r="T16">
+        <f>BCRbQ!S16</f>
         <v>0</v>
       </c>
       <c r="U16">
+        <f>BCRbQ!T16</f>
         <v>0</v>
       </c>
       <c r="V16">
+        <f>BCRbQ!U16</f>
         <v>0</v>
       </c>
       <c r="W16">
+        <f>BCRbQ!V16</f>
         <v>0</v>
       </c>
       <c r="X16">
+        <f>BCRbQ!W16</f>
         <v>0</v>
       </c>
       <c r="Y16">
+        <f>BCRbQ!X16</f>
         <v>0</v>
       </c>
       <c r="Z16">
+        <f>BCRbQ!Y16</f>
         <v>0</v>
       </c>
       <c r="AA16">
+        <f>BCRbQ!Z16</f>
         <v>0</v>
       </c>
       <c r="AB16">
+        <f>BCRbQ!AA16</f>
         <v>0</v>
       </c>
       <c r="AC16">
+        <f>BCRbQ!AB16</f>
         <v>0</v>
       </c>
       <c r="AD16">
+        <f>BCRbQ!AC16</f>
         <v>0</v>
       </c>
       <c r="AE16">
+        <f>BCRbQ!AD16</f>
         <v>0</v>
       </c>
       <c r="AF16">
+        <f>BCRbQ!AE16</f>
         <v>0</v>
       </c>
       <c r="AG16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
+        <f>BCRbQ!AF16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
@@ -2402,96 +4542,127 @@
         <v>0</v>
       </c>
       <c r="C17">
+        <f>BCRbQ!B17</f>
         <v>0</v>
       </c>
       <c r="D17">
+        <f>BCRbQ!C17</f>
         <v>0</v>
       </c>
       <c r="E17">
+        <f>BCRbQ!D17</f>
         <v>0</v>
       </c>
       <c r="F17">
+        <f>BCRbQ!E17</f>
         <v>0</v>
       </c>
       <c r="G17">
+        <f>BCRbQ!F17</f>
         <v>0</v>
       </c>
       <c r="H17">
+        <f>BCRbQ!G17</f>
         <v>0</v>
       </c>
       <c r="I17">
+        <f>BCRbQ!H17</f>
         <v>0</v>
       </c>
       <c r="J17">
+        <f>BCRbQ!I17</f>
         <v>0</v>
       </c>
       <c r="K17">
+        <f>BCRbQ!J17</f>
         <v>0</v>
       </c>
       <c r="L17">
+        <f>BCRbQ!K17</f>
         <v>0</v>
       </c>
       <c r="M17">
+        <f>BCRbQ!L17</f>
         <v>0</v>
       </c>
       <c r="N17">
+        <f>BCRbQ!M17</f>
         <v>0</v>
       </c>
       <c r="O17">
+        <f>BCRbQ!N17</f>
         <v>0</v>
       </c>
       <c r="P17">
+        <f>BCRbQ!O17</f>
         <v>0</v>
       </c>
       <c r="Q17">
+        <f>BCRbQ!P17</f>
         <v>0</v>
       </c>
       <c r="R17">
+        <f>BCRbQ!Q17</f>
         <v>0</v>
       </c>
       <c r="S17">
+        <f>BCRbQ!R17</f>
         <v>0</v>
       </c>
       <c r="T17">
+        <f>BCRbQ!S17</f>
         <v>0</v>
       </c>
       <c r="U17">
+        <f>BCRbQ!T17</f>
         <v>0</v>
       </c>
       <c r="V17">
+        <f>BCRbQ!U17</f>
         <v>0</v>
       </c>
       <c r="W17">
+        <f>BCRbQ!V17</f>
         <v>0</v>
       </c>
       <c r="X17">
+        <f>BCRbQ!W17</f>
         <v>0</v>
       </c>
       <c r="Y17">
+        <f>BCRbQ!X17</f>
         <v>0</v>
       </c>
       <c r="Z17">
+        <f>BCRbQ!Y17</f>
         <v>0</v>
       </c>
       <c r="AA17">
+        <f>BCRbQ!Z17</f>
         <v>0</v>
       </c>
       <c r="AB17">
+        <f>BCRbQ!AA17</f>
         <v>0</v>
       </c>
       <c r="AC17">
+        <f>BCRbQ!AB17</f>
         <v>0</v>
       </c>
       <c r="AD17">
+        <f>BCRbQ!AC17</f>
         <v>0</v>
       </c>
       <c r="AE17">
+        <f>BCRbQ!AD17</f>
         <v>0</v>
       </c>
       <c r="AF17">
+        <f>BCRbQ!AE17</f>
         <v>0</v>
       </c>
       <c r="AG17">
+        <f>BCRbQ!AF17</f>
         <v>0</v>
       </c>
     </row>

--- a/InputData/elec/CRbQ/Cap Retirements before Quantization.xlsx
+++ b/InputData/elec/CRbQ/Cap Retirements before Quantization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\California\CA-eps\InputData\elec\CRbQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8C2056-8BC2-4B78-B940-6D5FF5735CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440788E6-5A72-4EC6-B91E-243BC4E7209F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9870" yWindow="255" windowWidth="16830" windowHeight="17175" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="14" r:id="rId1"/>
@@ -2450,8 +2450,8 @@
   </sheetPr>
   <dimension ref="A1:AI17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3351,8 +3351,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <f>BCRbQ!C8</f>
-        <v>1300</v>
+        <v>1280</v>
       </c>
       <c r="E8">
         <f>BCRbQ!D8</f>
